--- a/Certificate_generator/results.xlsx
+++ b/Certificate_generator/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>SNo</t>
   </si>
@@ -50,110 +50,29 @@
     <t>ABHISHEK SHARMA</t>
   </si>
   <si>
-    <t>abhishek.2125csit@kiet.edu</t>
-  </si>
-  <si>
-    <t>ABHISHEK VERMA</t>
-  </si>
-  <si>
-    <t>abhishek.2125cs1049@kiet.edu</t>
-  </si>
-  <si>
-    <t>ADARSH CHAUDHARY</t>
-  </si>
-  <si>
-    <t>adarsh.2125ce1012@kiet.edu</t>
-  </si>
-  <si>
-    <t>ADITYA KUMAR</t>
-  </si>
-  <si>
-    <t>aditya.2125en1056@kiet.edu</t>
-  </si>
-  <si>
-    <t>ADITYA MISHRA</t>
-  </si>
-  <si>
-    <t>aditya.2125csai1036@kiet.edu</t>
-  </si>
-  <si>
-    <t>AKSHAT GAUR</t>
-  </si>
-  <si>
-    <t>akshat.2125me1006@kiet.edu</t>
-  </si>
-  <si>
-    <t>ALKA GUPTA</t>
-  </si>
-  <si>
-    <t>alka.2125csme1018@kiet.edu</t>
-  </si>
-  <si>
-    <t>AMAN SHARMA</t>
-  </si>
-  <si>
-    <t>aman.2125csai1003@kiet.edu</t>
-  </si>
-  <si>
-    <t>ANUJ BIKRAM PRATAP SINGH RANA</t>
-  </si>
-  <si>
-    <t>anuj.2125en1007@kiet.edu</t>
-  </si>
-  <si>
-    <t>ANUJ KARNWAL</t>
-  </si>
-  <si>
-    <t>anuj.2125cs1082@kiet.edu</t>
-  </si>
-  <si>
-    <t>ANURAG KUMAR</t>
-  </si>
-  <si>
-    <t>anurag.2125cs1123@kiet.edu</t>
-  </si>
-  <si>
-    <t>ASHISH KUMAR GAUTAM</t>
-  </si>
-  <si>
-    <t>ashish.2125it1172@kiet.edu</t>
-  </si>
-  <si>
-    <t>ATUL KUMAR</t>
-  </si>
-  <si>
-    <t>atul.2125ec1087@kiet.edu</t>
-  </si>
-  <si>
     <t>AWADHESH KUMAR MAURYA</t>
   </si>
   <si>
-    <t>awadhesh.2125cse1103@kiet.edu</t>
-  </si>
-  <si>
     <t>BADAL KUMAR</t>
   </si>
   <si>
-    <t>badal.2125ce1003@kiet.edu</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>X</t>
+    <t>P</t>
+  </si>
+  <si>
+    <t>anubhavpatrick@gmail.com</t>
+  </si>
+  <si>
+    <t>madhurajora1234@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -170,6 +89,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,10 +115,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -201,8 +128,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,10 +347,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD83"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -461,256 +392,50 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="2">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="2">
-        <v>10</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2">
-        <v>13</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>14</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2">
-        <v>15</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3:E4" r:id="rId2" display="anubhavpatrick@gmail.com"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Certificate_generator/results.xlsx
+++ b/Certificate_generator/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>SNo</t>
   </si>
@@ -65,7 +65,10 @@
     <t>anubhavpatrick@gmail.com</t>
   </si>
   <si>
-    <t>madhurajora1234@gmail.com</t>
+    <t>vineet.sharma@kiet.edu</t>
+  </si>
+  <si>
+    <t>anubhav.patrick@kiet.edu</t>
   </si>
 </sst>
 </file>
@@ -410,7 +413,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -427,7 +430,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -435,6 +438,7 @@
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E3:E4" r:id="rId2" display="anubhavpatrick@gmail.com"/>
     <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Certificate_generator/results.xlsx
+++ b/Certificate_generator/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>SNo</t>
   </si>
@@ -50,25 +50,7 @@
     <t>ABHISHEK SHARMA</t>
   </si>
   <si>
-    <t>AWADHESH KUMAR MAURYA</t>
-  </si>
-  <si>
-    <t>BADAL KUMAR</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
     <t>anubhavpatrick@gmail.com</t>
-  </si>
-  <si>
-    <t>vineet.sharma@kiet.edu</t>
-  </si>
-  <si>
-    <t>anubhav.patrick@kiet.edu</t>
   </si>
 </sst>
 </file>
@@ -350,10 +332,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -396,49 +378,12 @@
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3:E4" r:id="rId2" display="anubhavpatrick@gmail.com"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Certificate_generator/results.xlsx
+++ b/Certificate_generator/results.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>SNo</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>anubhavpatrick@gmail.com</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Priyanka Bhardwaj</t>
+  </si>
+  <si>
+    <t>anubhav.patrick@kiet.edu</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Tishka Gupra</t>
   </si>
 </sst>
 </file>
@@ -104,7 +119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -116,6 +131,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -332,10 +348,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -381,9 +397,45 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
